--- a/biology/Zoologie/Heliconius_xanthocles/Heliconius_xanthocles.xlsx
+++ b/biology/Zoologie/Heliconius_xanthocles/Heliconius_xanthocles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius xanthocles est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Heliconius xanthocles a été décrit par l'entomologiste britannique Henry Walter Bates en 1862[1]. La localité type est la Guyane française.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Heliconius xanthocles a été décrit par l'entomologiste britannique Henry Walter Bates en 1862. La localité type est la Guyane française.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sous-espèces[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sous-espèces,.
 Heliconius xanthocles xanthocles; présent en  en Guyana
 Heliconius xanthocles buechei Neukirchen, 1992; présent au Venezuela.
 Heliconius xanthocles cleoxanthe H. &amp; R. Holzinger, 1972; présent au Venezuela.
@@ -592,14 +608,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand papillon d'une envergure variant de 65 mm à 80 mm aux ailes allongées et arrondies de couleur marron et orange[4]. Les ailes antérieures sont marron avec une partie basale orange et la partie marron est coupée d'une barre partielle jaune pâle ou d'une flaque jaune pâle. Les ailes postérieures sont marron avec des lignes orange allant de la partie basale à la marge.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon d'une envergure variant de 65 mm à 80 mm aux ailes allongées et arrondies de couleur marron et orange. Les ailes antérieures sont marron avec une partie basale orange et la partie marron est coupée d'une barre partielle jaune pâle ou d'une flaque jaune pâle. Les ailes postérieures sont marron avec des lignes orange allant de la partie basale à la marge.
 Le revers est semblable mais moins coloré.
 			Heliconius xanthocles melote
 			Heliconius xanthocles vala
-Chenille
-La chenille, rayée jaune et noir à tête noire possède des cornes noires[5].
 </t>
         </is>
       </c>
@@ -625,13 +641,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Gradanilla (Passifloraceae)[5].
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille, rayée jaune et noir à tête noire possède des cornes noires.
 </t>
         </is>
       </c>
@@ -657,14 +678,88 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Gradanilla (Passifloraceae).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_xanthocles</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_xanthocles</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Guyane, en Guyana, en Équateur, au Venezuela, en Bolivie, en Colombie, au Brésil et au Pérou[2].
-Biotope
-Il réside dans la canopée de la forêt tropicale[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Guyane, en Guyana, en Équateur, au Venezuela, en Bolivie, en Colombie, au Brésil et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_xanthocles</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_xanthocles</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la canopée de la forêt tropicale.
 </t>
         </is>
       </c>
